--- a/proposta progetto/04.Informazioni progetto IS.xlsx
+++ b/proposta progetto/04.Informazioni progetto IS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snake\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snake\Desktop\IS2020\StreamPlatform\PROPOSTA PROGETTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87EE920-53FB-492C-811B-EDF000333B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEB5CBC-F9F1-423C-A320-6CDD894AF8B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="progetto" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Progetto</t>
   </si>
@@ -563,7 +563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -645,7 +645,9 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
